--- a/Szabdan/Szoftver teszt/Gyakorlat/Program1/ML-Tesztesetek.xlsx
+++ b/Szabdan/Szoftver teszt/Gyakorlat/Program1/ML-Tesztesetek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\!2024-25\Szabdan\Szoftver teszt\Gyakorlat\Program1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.School\2024-25\Szabdan\Szoftver teszt\Gyakorlat\Program1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB35A7B-A045-41BA-91A9-9ABAD96A55EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801BCDBA-F074-48D3-98FD-FF72D00C567C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
   </bookViews>
   <sheets>
     <sheet name="program1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>Várható eredmény</t>
   </si>
@@ -60,9 +60,6 @@
     <t>HIBA</t>
   </si>
   <si>
-    <t>Leet fájlbeolvasás kódolása</t>
-  </si>
-  <si>
     <t>Ne lehessen beolvasást törölni ameddig nem történt beolvasás</t>
   </si>
   <si>
@@ -87,30 +84,12 @@
     <t>Helyes kódolás</t>
   </si>
   <si>
-    <t>Ceasar-rejtjel dekódolás</t>
-  </si>
-  <si>
     <t>Helyes dekódolás</t>
   </si>
   <si>
     <t>MD5 kódolása üres kódolandó szóval</t>
   </si>
   <si>
-    <t>Ceasar-rejtjel kódolás beolvasott fájlal</t>
-  </si>
-  <si>
-    <t>Ceasar-rejtjel dekódolás beolvasott fájlal</t>
-  </si>
-  <si>
-    <t>Leet fájlbeolvasás dekódolása</t>
-  </si>
-  <si>
-    <t>Vigenére kódolás beolvasot fájlal</t>
-  </si>
-  <si>
-    <t>Bolvasás törlése</t>
-  </si>
-  <si>
     <t>Üres fájl mentése</t>
   </si>
   <si>
@@ -120,9 +99,6 @@
     <t>Jó méretben nyilik meg</t>
   </si>
   <si>
-    <t>Vigenére dekódolás beolvasott fájlal</t>
-  </si>
-  <si>
     <t>XOR használat</t>
   </si>
   <si>
@@ -238,6 +214,57 @@
   </si>
   <si>
     <t>Ha ékezetes betüket akarsz kódolni, akkor eggyes kódolási metodusok nem támogatják egyesek rosszul kódolják</t>
+  </si>
+  <si>
+    <t>Leet kódolás beolvasott fájlal</t>
+  </si>
+  <si>
+    <t>A mentett fájlban nem ír visszajelzést a kódolás vagy dekódolás metodusárol</t>
+  </si>
+  <si>
+    <t>Ha a beolvasott fájlt szeretnénk leet kódolással kódolni akkor helytelen lesz a kódolás</t>
+  </si>
+  <si>
+    <t>Ha a beolvasott fájlt szeretnénk leet dekódolással dekódolni akkor helytelen lesz a dekódolás</t>
+  </si>
+  <si>
+    <t>Többszöri Ceasar-rejtjel kódolás beolvasott fájlal</t>
+  </si>
+  <si>
+    <t>Többszöri Ceasar-rejtjel dekódolás beolvasott fájlal</t>
+  </si>
+  <si>
+    <t>Többszöri Vigenére kódolás beolvasot fájlal</t>
+  </si>
+  <si>
+    <t>Többszöri Vigenére dekódolás beolvasott fájlal</t>
+  </si>
+  <si>
+    <t>Ha többször szeretnénk kódolni beolvasott fájlal a Vigenére-rel akkor a továbbiakban helytelennül irja ki</t>
+  </si>
+  <si>
+    <t>Ha többször szeretnénk dekódolni beolvasott fájlal a Vigenére-rel akkor a továbbiakban helytelennül irja ki</t>
+  </si>
+  <si>
+    <t>Ha többször szeretnénk kódolni beolvasott fájlal a Caesar-rejtjellel akkor a továbbiakban helytelennül irja ki</t>
+  </si>
+  <si>
+    <t>Ha többször szeretnénk dekódolni beolvasott fájlal a Caesar-rejtjellel akkor a továbbiakban helytelennül irja ki</t>
+  </si>
+  <si>
+    <t>Ha Vigenére-rel kódolunk üres kulcsszóval akkor ir kódolt szót</t>
+  </si>
+  <si>
+    <t>Visszajelzés a sikeres műveletről</t>
+  </si>
+  <si>
+    <t>Összes kódolás/dekódolás</t>
+  </si>
+  <si>
+    <t>Nem jelez vissza hogy sikerült-e le kódolni</t>
+  </si>
+  <si>
+    <t>Leet dekódolása beolvasott fájlal</t>
   </si>
 </sst>
 </file>
@@ -282,15 +309,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -306,7 +333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -624,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0231CE-89BE-4B9A-B007-29C9D24325B8}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,52 +683,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -712,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -726,24 +753,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -754,24 +781,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -782,10 +809,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -796,10 +823,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -810,38 +837,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
@@ -852,10 +879,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -866,10 +893,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -880,10 +907,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -894,10 +921,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -908,10 +935,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
@@ -922,10 +949,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
@@ -936,13 +963,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,13 +977,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,13 +991,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -978,13 +1005,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -992,13 +1019,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1006,13 +1033,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,13 +1047,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1034,13 +1061,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,13 +1075,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,13 +1089,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1080,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129132E-D5C9-42AC-BCD9-E2627BC4C341}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,145 +1125,163 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Szabdan/Szoftver teszt/Gyakorlat/Program1/ML-Tesztesetek.xlsx
+++ b/Szabdan/Szoftver teszt/Gyakorlat/Program1/ML-Tesztesetek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.School\2024-25\Szabdan\Szoftver teszt\Gyakorlat\Program1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\!2024-25\Szabdan\Szoftver teszt\Gyakorlat\Program1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801BCDBA-F074-48D3-98FD-FF72D00C567C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AACD5-FE5B-4FC3-B1C7-9959288F5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
   </bookViews>
   <sheets>
     <sheet name="program1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>ADFGVX kódolásnál ha nem adunk meg kulcsszót akkor összeomlik a program</t>
   </si>
   <si>
-    <t>A XOR használatánál nincs kódolásra/dekódolást kiválaszto rádiogomb</t>
-  </si>
-  <si>
     <t>Ha nem olvastál be, is lehet használni a "Beolvasás törlése" gombot</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Sortörés vizsgálata</t>
   </si>
   <si>
-    <t>Ha ékezetes betüket akarsz kódolni, akkor eggyes kódolási metodusok nem támogatják egyesek rosszul kódolják</t>
-  </si>
-  <si>
     <t>Leet kódolás beolvasott fájlal</t>
   </si>
   <si>
@@ -261,10 +255,16 @@
     <t>Összes kódolás/dekódolás</t>
   </si>
   <si>
-    <t>Nem jelez vissza hogy sikerült-e le kódolni</t>
-  </si>
-  <si>
     <t>Leet dekódolása beolvasott fájlal</t>
+  </si>
+  <si>
+    <t>Ha ékezetes betüket akarsz kódolni, akkor eggyes kódolási metodusok nem támogatják, rosszul kódolják</t>
+  </si>
+  <si>
+    <t>Nem jelez vissza hogy sikerült-e le (de)kódolni</t>
+  </si>
+  <si>
+    <t>A XOR használatánál nincs kódolásra/dekódolást kiválasztó gomb</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0231CE-89BE-4B9A-B007-29C9D24325B8}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -753,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -767,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -781,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -851,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -879,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -896,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -935,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>22</v>
@@ -963,13 +963,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,13 +977,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1005,13 +1005,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1019,13 +1019,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1033,13 +1033,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,13 +1047,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1061,13 +1061,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,13 +1075,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,13 +1089,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129132E-D5C9-42AC-BCD9-E2627BC4C341}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
